--- a/Emily/violation_codes_counts.xlsx
+++ b/Emily/violation_codes_counts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>violation_code</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>14,38,69,21,37,20,31,16,46,40,47,19,42,71,17</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -429,7 +432,7 @@
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>14</v>
       </c>
@@ -472,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>38</v>
       </c>
@@ -495,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>69</v>
       </c>
@@ -517,8 +520,11 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>21</v>
       </c>
@@ -541,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>37</v>
       </c>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>20</v>
       </c>
@@ -587,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>31</v>
       </c>
@@ -610,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>16</v>
       </c>
@@ -633,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>46</v>
       </c>
@@ -656,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>40</v>
       </c>
@@ -679,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>47</v>
       </c>
@@ -702,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>19</v>
       </c>
@@ -725,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>42</v>
       </c>
@@ -748,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>71</v>
       </c>
@@ -771,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>17</v>
       </c>
